--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="116">
   <si>
     <t>作成者</t>
   </si>
@@ -281,12 +281,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UNSIGNED BIGINT</t>
-  </si>
-  <si>
-    <t>UNSIGNED TINYINT</t>
-  </si>
-  <si>
     <t>登录状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -509,6 +503,23 @@
   <si>
     <t>菜单名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1361,7 @@
     <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1404,14 +1415,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1425,38 +1460,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="166">
@@ -2053,7 +2070,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2062,88 +2079,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="36"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="36"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="2:7">
       <c r="D9" s="21"/>
@@ -2315,62 +2332,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:C2"/>
@@ -2387,6 +2348,62 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,10 +2414,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2409,109 +2426,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="34" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -2526,66 +2548,72 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
@@ -2599,23 +2627,24 @@
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
@@ -2629,21 +2658,22 @@
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>32</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>4</v>
@@ -2657,21 +2687,22 @@
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="20"/>
+      <c r="G12" s="15">
         <v>32</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>5</v>
@@ -2685,21 +2716,22 @@
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="20"/>
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>6</v>
@@ -2713,19 +2745,20 @@
       <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="20"/>
+      <c r="G14" s="8">
         <v>64</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>7</v>
@@ -2739,19 +2772,20 @@
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="20"/>
+      <c r="G15" s="8">
         <v>20</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>8</v>
@@ -2765,19 +2799,20 @@
       <c r="E16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="20"/>
+      <c r="G16" s="8">
         <v>30</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L16" s="11"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="6">
         <v>9</v>
@@ -2789,135 +2824,146 @@
         <v>46</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="8">
+        <v>115</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L17" s="11"/>
+      <c r="M17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="6">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N18" s="17"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="6">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="6">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="20"/>
+      <c r="G20" s="8">
         <v>50</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="13.5" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="6">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N21" s="17"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="13.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="6">
         <v>14</v>
@@ -2929,27 +2975,30 @@
         <v>47</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="8">
+        <v>115</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11">
         <v>0</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="M22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N22" s="17"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="13.5" customHeight="1">
       <c r="B23" s="6">
         <v>15</v>
       </c>
@@ -2962,18 +3011,19 @@
       <c r="E23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" ht="13.5" customHeight="1">
       <c r="B24" s="6">
         <v>16</v>
       </c>
@@ -2986,38 +3036,46 @@
       <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="17"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="17"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E24">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E16 E19:E20">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F24">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E21:E22 E17:E18">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3027,10 +3085,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3039,109 +3098,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -3156,120 +3220,128 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L9" s="11"/>
+      <c r="M9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>4</v>
@@ -3281,27 +3353,30 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8">
+        <v>115</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -3314,16 +3389,17 @@
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -3336,38 +3412,85 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24"/>
+      <c r="G24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,10 +3499,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3388,109 +3512,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -3505,178 +3634,188 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L9" s="11"/>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="20"/>
+      <c r="G12" s="8">
         <v>50</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N13" s="17"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="6">
         <v>6</v>
@@ -3688,27 +3827,28 @@
         <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="8">
+        <v>115</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N14" s="17"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
       <c r="B15" s="6">
         <v>7</v>
       </c>
@@ -3721,18 +3861,19 @@
       <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1">
       <c r="B16" s="6">
         <v>8</v>
       </c>
@@ -3745,38 +3886,77 @@
       <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="17"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24"/>
+      <c r="H24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E12">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F16">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E13:E14">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3785,10 +3965,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3797,109 +3978,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -3914,128 +4100,136 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L9" s="11"/>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8">
+        <v>114</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15">
+        <v>114</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>20</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>6</v>
@@ -4047,27 +4241,28 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8">
+        <v>115</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -4080,16 +4275,17 @@
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>8</v>
       </c>
@@ -4102,39 +4298,84 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24"/>
+      <c r="H24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
-      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自增ID" sqref="C9"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4142,10 +4383,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4154,109 +4396,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -4271,128 +4518,136 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L9" s="11"/>
+      <c r="M9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8">
+        <v>114</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="15">
+        <v>114</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>20</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>6</v>
@@ -4404,27 +4659,28 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8">
+        <v>115</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -4437,16 +4693,17 @@
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>8</v>
       </c>
@@ -4459,38 +4716,97 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
-      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4499,10 +4815,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4511,109 +4828,114 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="L1" s="27"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="1"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="1"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -4628,120 +4950,128 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="8">
+        <v>114</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L9" s="11"/>
+      <c r="M9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <v>20</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
         <v>100</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
         <v>4</v>
@@ -4753,27 +5083,28 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8">
+        <v>115</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1">
+      <c r="N12" s="17"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -4786,16 +5117,17 @@
       <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1">
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -4808,40 +5140,92 @@
       <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770" activeTab="1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="119">
   <si>
     <t>作成者</t>
   </si>
@@ -112,9 +112,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>一意</t>
-  </si>
-  <si>
     <t>主键</t>
   </si>
   <si>
@@ -357,169 +354,184 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>sys_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统权限表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限访问路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0 表示目录，1 表示菜单，2 表示按钮 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统权限表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色用户关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色权限关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色用户关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色权限关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_permission</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>索引类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>uk_login_account</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>pk_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统权限表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限访问路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>UNIQUE</t>
   </si>
   <si>
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0 表示目录，1 表示菜单，2 表示按钮 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统权限表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色用户关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色权限关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx_role_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色用户关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色权限关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_permission</t>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sys_menu</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1373,7 @@
     <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1421,17 +1433,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1447,30 +1489,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2070,7 +2088,7 @@
   <dimension ref="B2:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2079,259 +2097,319 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="4:7">
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="4:7">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:C2"/>
@@ -2348,62 +2426,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,8 +2438,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2426,117 +2448,116 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="19" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="19" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="35"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="35"/>
+      <c r="N6" s="32"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -2548,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -2566,66 +2587,61 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:15">
       <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+        <v>49</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="8">
@@ -2633,30 +2649,30 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
+      <c r="L10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="15">
@@ -2664,28 +2680,26 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="B12" s="6">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="15">
@@ -2693,28 +2707,26 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="8">
@@ -2722,28 +2734,26 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A14" s="3"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" s="6">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="8">
@@ -2753,24 +2763,22 @@
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A15" s="3"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="6">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="8">
@@ -2780,24 +2788,22 @@
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A16" s="3"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="6">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="8">
@@ -2807,27 +2813,25 @@
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A17" s="3"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="6">
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2836,29 +2840,27 @@
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="3"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" customHeight="1">
       <c r="B18" s="6">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2866,29 +2868,27 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11">
+      <c r="K18" s="11">
         <v>0</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A19" s="3"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" customHeight="1">
       <c r="B19" s="6">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="8"/>
@@ -2896,24 +2896,22 @@
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A20" s="3"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="6">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="8">
@@ -2923,118 +2921,113 @@
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A21" s="3"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="6">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
+      <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A22" s="3"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="6">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11">
+      <c r="K22" s="11">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" ht="13.5" customHeight="1">
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="13.5" customHeight="1">
       <c r="B23" s="6">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" ht="13.5" customHeight="1">
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="6">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="8"/>
@@ -3042,18 +3035,13 @@
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:H1"/>
@@ -3062,9 +3050,14 @@
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E24">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
@@ -3076,6 +3069,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E21:E22 E17:E18">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L24">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3089,7 +3085,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3098,117 +3094,116 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -3220,7 +3215,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3238,13 +3233,13 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -3254,34 +3249,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>76</v>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3291,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="8">
@@ -3305,13 +3298,13 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -3320,13 +3313,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="15">
@@ -3336,9 +3329,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
@@ -3347,33 +3340,33 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
@@ -3381,21 +3374,23 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="12"/>
       <c r="N13" s="17"/>
     </row>
@@ -3404,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="8"/>
@@ -3418,7 +3413,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="12"/>
       <c r="N14" s="17"/>
     </row>
@@ -3479,7 +3474,7 @@
     <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
@@ -3492,6 +3487,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3502,8 +3500,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3512,117 +3510,116 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -3634,7 +3631,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3652,13 +3649,13 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -3668,34 +3665,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>87</v>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3705,13 +3700,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="8">
@@ -3719,13 +3714,13 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -3734,13 +3729,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="15">
@@ -3750,9 +3745,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
@@ -3761,13 +3756,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="8">
@@ -3777,9 +3772,9 @@
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="17"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
@@ -3788,13 +3783,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="8">
@@ -3802,17 +3797,17 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="K13" s="11">
         <v>0</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
@@ -3821,13 +3816,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="8">
@@ -3835,17 +3830,17 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11">
+      <c r="K14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1">
@@ -3853,23 +3848,23 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="12"/>
       <c r="N15" s="17"/>
     </row>
@@ -3878,13 +3873,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
@@ -3892,7 +3887,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="12"/>
       <c r="N16" s="17"/>
     </row>
@@ -3945,7 +3940,7 @@
     <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
@@ -3958,6 +3953,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E13:E14">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L16">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3968,8 +3966,428 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="37"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="35"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="15">
+        <v>20</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B13" s="6">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B14" s="6">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="F15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24"/>
+      <c r="H24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
+      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自增ID" sqref="C9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3979,116 +4397,118 @@
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
     <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4100,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4118,13 +4538,13 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -4134,34 +4554,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>87</v>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -4171,13 +4589,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="8">
@@ -4185,17 +4603,15 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
+        <v>49</v>
+      </c>
+      <c r="J10" s="11">
         <v>2</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -4204,13 +4620,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="15">
@@ -4218,15 +4634,15 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11">
         <v>3</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
@@ -4235,31 +4651,33 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
@@ -4267,36 +4685,39 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="8"/>
@@ -4304,56 +4725,74 @@
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15">
       <c r="F15"/>
+      <c r="G15"/>
       <c r="H15"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15">
       <c r="F16"/>
+      <c r="G16"/>
       <c r="H16"/>
-    </row>
-    <row r="17" spans="6:8">
+      <c r="M16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="6:8" s="3" customFormat="1">
       <c r="F17"/>
+      <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" s="3" customFormat="1">
       <c r="F18"/>
+      <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" s="3" customFormat="1">
       <c r="F19"/>
+      <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" s="3" customFormat="1">
       <c r="F20"/>
+      <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" s="3" customFormat="1">
       <c r="F21"/>
+      <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" s="3" customFormat="1">
       <c r="F22"/>
+      <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" s="3" customFormat="1">
       <c r="F23"/>
+      <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" s="3" customFormat="1">
       <c r="F24"/>
+      <c r="G24"/>
       <c r="H24"/>
     </row>
+    <row r="25" spans="6:8" s="3" customFormat="1">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="11">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
@@ -4375,19 +4814,21 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自增ID" sqref="C9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4396,117 +4837,116 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="35"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="35"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>4</v>
@@ -4518,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4536,13 +4976,13 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -4552,34 +4992,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>87</v>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -4589,13 +5027,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="8">
@@ -4603,17 +5041,13 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>2</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -4622,99 +5056,99 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="11">
-        <v>3</v>
-      </c>
-      <c r="L11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="12"/>
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="8"/>
@@ -4722,64 +5156,53 @@
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="12"/>
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:15">
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15"/>
     </row>
     <row r="16" spans="1:15">
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="6:8">
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="6:8">
+    </row>
+    <row r="18" spans="6:7">
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="6:8">
+    </row>
+    <row r="19" spans="6:7">
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="6:8">
+    </row>
+    <row r="20" spans="6:7">
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="6:8">
+    </row>
+    <row r="21" spans="6:7">
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="6:8">
+    </row>
+    <row r="22" spans="6:7">
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="6:8">
+    </row>
+    <row r="23" spans="6:7">
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="6:8">
+    </row>
+    <row r="24" spans="6:7">
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="6:8">
+    </row>
+    <row r="25" spans="6:7">
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4798,420 +5221,7 @@
     <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
-      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
-      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="4"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="25"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="25"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="8">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="8">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="15">
-        <v>100</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
@@ -5224,6 +5234,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
     <sheet name="sys_user" sheetId="12" r:id="rId2"/>
     <sheet name="sys_role" sheetId="15" r:id="rId3"/>
     <sheet name="sys_permission" sheetId="16" r:id="rId4"/>
-    <sheet name="sys_role_user" sheetId="17" r:id="rId5"/>
-    <sheet name="sys_role_permission" sheetId="18" r:id="rId6"/>
-    <sheet name="sys_menu" sheetId="19" r:id="rId7"/>
+    <sheet name="sys_menu" sheetId="19" r:id="rId5"/>
+    <sheet name="sys_role_user" sheetId="17" r:id="rId6"/>
+    <sheet name="sys_role_permission" sheetId="18" r:id="rId7"/>
+    <sheet name="sys_role_menu" sheetId="20" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_4__123Graph_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
   <si>
     <t>作成者</t>
   </si>
@@ -290,10 +291,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0 表示未登录，1 表示已登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最后登录时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -531,6 +528,66 @@
   </si>
   <si>
     <t>sys_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单排列顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 表示目录，1 表示菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色菜单关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 表示已登录,0 表示未登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统管理员 ，0 普通用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1430,7 @@
     <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1439,6 +1496,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1448,8 +1511,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1474,21 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2087,9 +2147,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2097,319 +2155,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="4:7">
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="4:7">
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:C2"/>
@@ -2426,6 +2428,62 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,11 +2494,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2456,102 +2512,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="32"/>
+      <c r="N5" s="38"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="32"/>
+      <c r="N6" s="38"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -2569,7 +2625,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -2587,7 +2643,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -2602,16 +2658,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -2654,10 +2710,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -2828,10 +2884,10 @@
         <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2846,21 +2902,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="13.5" customHeight="1">
+    <row r="18" spans="2:14">
       <c r="B18" s="6">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2874,7 +2930,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="12" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
@@ -2882,41 +2938,47 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
       <c r="B20" s="6">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F20" s="20"/>
-      <c r="G20" s="8">
-        <v>50</v>
-      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
@@ -2930,49 +2992,41 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>106</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F21" s="20"/>
       <c r="G21" s="8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H21" s="9"/>
-      <c r="I21" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="2:14" ht="13.5" customHeight="1">
       <c r="B22" s="6">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -2988,7 +3042,7 @@
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="13.5" customHeight="1">
@@ -2996,35 +3050,43 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="8"/>
+        <v>107</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:14" ht="13.5" customHeight="1">
       <c r="B24" s="6">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -3032,16 +3094,46 @@
       <c r="F24" s="20"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="12"/>
     </row>
+    <row r="25" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B25" s="6">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="12"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:H1"/>
@@ -3050,27 +3142,22 @@
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E25">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E16 E19:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E21 E10:E16">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F25">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E21:E22 E17:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E22:E23 E17:E19">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L25">
       <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3084,9 +3171,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -3102,102 +3187,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="40"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3215,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3233,7 +3318,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3249,16 +3334,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3274,7 +3359,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3284,10 +3369,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -3313,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3346,10 +3431,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -3386,7 +3471,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -3500,9 +3585,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -3518,102 +3601,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="40"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3631,7 +3714,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3649,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3665,16 +3748,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3690,7 +3773,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3700,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -3729,10 +3812,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3756,10 +3839,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -3783,21 +3866,23 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11">
@@ -3806,7 +3891,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -3822,9 +3907,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="20"/>
+        <v>107</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G14" s="8">
         <v>1</v>
       </c>
@@ -3963,12 +4050,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O24"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -3984,102 +4069,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="40"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -4097,7 +4182,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4115,7 +4200,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4131,16 +4216,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -4156,7 +4241,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -4166,15 +4251,529 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="8">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="15">
+        <v>100</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B16" s="6">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11 E14">
+      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E17">
+      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F17">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E9 E12:E13">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L17">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
+    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="4"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>91</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="8">
         <v>20</v>
       </c>
@@ -4197,15 +4796,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G11" s="15">
         <v>20</v>
       </c>
@@ -4234,10 +4835,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -4274,7 +4875,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4313,36 +4914,44 @@
       <c r="F16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" s="3" customFormat="1">
       <c r="F17"/>
+      <c r="G17" s="2"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" s="3" customFormat="1">
       <c r="F18"/>
+      <c r="G18" s="2"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" s="3" customFormat="1">
       <c r="F19"/>
+      <c r="G19" s="2"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" s="3" customFormat="1">
       <c r="F20"/>
+      <c r="G20" s="2"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" s="3" customFormat="1">
       <c r="F21"/>
+      <c r="G21" s="2"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" s="3" customFormat="1">
       <c r="F22"/>
+      <c r="G22" s="2"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" s="3" customFormat="1">
       <c r="F23"/>
+      <c r="G23" s="2"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" s="3" customFormat="1">
       <c r="F24"/>
+      <c r="G24" s="2"/>
       <c r="H24"/>
     </row>
   </sheetData>
@@ -4381,14 +4990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -4404,78 +5011,78 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="3"/>
       <c r="N1" s="21"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="3"/>
       <c r="N2" s="22"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="3"/>
       <c r="N3" s="22"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4486,17 +5093,17 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -4520,7 +5127,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4538,7 +5145,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4554,16 +5161,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -4579,7 +5186,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -4589,15 +5196,17 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="8">
         <v>20</v>
       </c>
@@ -4620,15 +5229,17 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G11" s="15">
         <v>20</v>
       </c>
@@ -4657,10 +5268,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -4697,7 +5308,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4791,17 +5402,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -4822,14 +5433,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -4845,102 +5453,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="23"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="35"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="28"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="28"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="40"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="40"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -4958,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4976,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4992,16 +5600,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -5017,7 +5625,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -5027,15 +5635,17 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="8">
         <v>20</v>
       </c>
@@ -5043,11 +5653,13 @@
       <c r="I10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="11">
+        <v>2</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -5056,21 +5668,27 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="G11" s="15">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="11"/>
+      <c r="I11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
       <c r="M11" s="12"/>
@@ -5080,7 +5698,7 @@
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>47</v>
@@ -5089,10 +5707,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -5114,7 +5732,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>29</v>
@@ -5129,7 +5747,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5139,7 +5757,7 @@
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>30</v>
@@ -5162,47 +5780,51 @@
     </row>
     <row r="15" spans="1:15">
       <c r="F15"/>
-      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:15">
       <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7">
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="6:8" s="3" customFormat="1">
       <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="G17" s="2"/>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="6:8" s="3" customFormat="1">
       <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7">
+      <c r="G18" s="2"/>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="6:8" s="3" customFormat="1">
       <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7">
+      <c r="G19" s="2"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="6:8" s="3" customFormat="1">
       <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7">
+      <c r="G20" s="2"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="6:8" s="3" customFormat="1">
       <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7">
+      <c r="G21" s="2"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="6:8" s="3" customFormat="1">
       <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7">
+      <c r="G22" s="2"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="6:8" s="3" customFormat="1">
       <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7">
+      <c r="G23" s="2"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="6:8" s="3" customFormat="1">
       <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="G24" s="2"/>
+      <c r="H24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5222,20 +5844,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
-      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
-      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="自增ID" sqref="C9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
+      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
-      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
-      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
+      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="7770"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="13" r:id="rId1"/>
     <sheet name="sys_user" sheetId="12" r:id="rId2"/>
     <sheet name="sys_role" sheetId="15" r:id="rId3"/>
-    <sheet name="sys_permission" sheetId="16" r:id="rId4"/>
-    <sheet name="sys_menu" sheetId="19" r:id="rId5"/>
-    <sheet name="sys_role_user" sheetId="17" r:id="rId6"/>
-    <sheet name="sys_role_permission" sheetId="18" r:id="rId7"/>
-    <sheet name="sys_role_menu" sheetId="20" r:id="rId8"/>
+    <sheet name="sys_menu" sheetId="19" r:id="rId4"/>
+    <sheet name="sys_role_user" sheetId="17" r:id="rId5"/>
+    <sheet name="sys_role_menu" sheetId="20" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_4__123Graph_Aｸﾞﾗﾌ_1" hidden="1">#REF!</definedName>
@@ -81,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="120">
   <si>
     <t>作成者</t>
   </si>
@@ -279,34 +277,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>登录状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1 表示男，0 表示女</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最后登录时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后登录IP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_login_ip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>是否已锁定</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,75 +321,198 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>role_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色用户关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色用户关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>索引类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单排列顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 表示目录，1 表示菜单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色菜单关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 系统管理员 ，0 普通用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_account</t>
+  </si>
+  <si>
+    <t>is_auto_generation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 表示是，0 表示否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 表示删除，0 表示未删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>role_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统权限表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限访问路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0 表示目录，1 表示菜单，2 表示按钮 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统权限表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色用户关联表</t>
+    <t>role_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_menu_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点菜单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点菜单ID,0为根节点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -423,139 +520,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色权限关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permission_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色用户关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_user</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色权限关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_permission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>正数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>索引类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uk_login_account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单排列顺序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_sort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 表示目录，1 表示菜单</t>
+    <t>role_id,user_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id,menu_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -564,30 +533,6 @@
   </si>
   <si>
     <t>系统角色菜单关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 表示已登录,0 表示未登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 系统管理员 ，0 普通用户</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +554,7 @@
     <numFmt numFmtId="186" formatCode="#,##0_ "/>
     <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +839,21 @@
       <name val="ＭＳ 明朝"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1058,7 +1018,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1429,8 +1389,9 @@
     </xf>
     <xf numFmtId="187" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1490,26 +1451,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1526,35 +1505,14 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="166" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="167">
     <cellStyle name="_IPS見積り20060516" xfId="12"/>
     <cellStyle name="BAR１" xfId="13"/>
     <cellStyle name="BAR無" xfId="14"/>
@@ -1706,6 +1664,7 @@
     <cellStyle name="常规 7" xfId="150"/>
     <cellStyle name="常规 8" xfId="10"/>
     <cellStyle name="常规 9" xfId="151"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="11"/>
     <cellStyle name="超链接 3" xfId="152"/>
     <cellStyle name="超链接 3 2" xfId="153"/>
@@ -2145,7 +2104,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2155,269 +2114,295 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="25" t="s">
-        <v>116</v>
-      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>117</v>
-      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="66">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="B3:C7"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
@@ -2428,64 +2413,15 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3:E3" location="sys_user!A1" display="系统用户表"/>
+    <hyperlink ref="D4:E4" location="sys_role!A1" display="系统角色表"/>
+    <hyperlink ref="D5:E5" location="sys_menu!A1" display="系统菜单表"/>
+    <hyperlink ref="D6:E6" location="sys_role_user!A1" display="系统角色用户关联表"/>
+    <hyperlink ref="D7:E7" location="sys_role_menu!A1" display="系统角色菜单关联表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2494,7 +2430,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2512,102 +2448,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="31"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -2625,7 +2561,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -2643,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -2658,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -2710,10 +2646,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -2884,10 +2820,10 @@
         <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2899,7 +2835,7 @@
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -2907,16 +2843,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2930,7 +2866,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="12" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
@@ -2938,22 +2874,24 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11">
         <v>0</v>
@@ -2961,7 +2899,7 @@
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
       <c r="N19" s="12" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="13.5" customHeight="1">
@@ -2969,43 +2907,53 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:14" ht="13.5" customHeight="1">
       <c r="B21" s="6">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F21" s="20"/>
-      <c r="G21" s="8">
-        <v>50</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="17"/>
@@ -3017,123 +2965,27 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
+      <c r="K22" s="11"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B23" s="6">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B24" s="6">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B25" s="6">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="12"/>
+      <c r="N22" s="12"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="13">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:H1"/>
@@ -3142,22 +2994,30 @@
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E25">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E22">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E21 E10:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E16">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F16 F21:F22">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E22:E23 E17:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E17:E20">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 F17:F20">
+      <formula1>"Y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L22">
       <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3169,7 +3029,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3187,102 +3047,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3300,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3318,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3334,16 +3194,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3359,7 +3219,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -3369,10 +3229,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -3387,8 +3247,12 @@
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="13"/>
+      <c r="L10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
@@ -3398,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3425,16 +3289,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -3450,44 +3314,54 @@
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A13" s="3"/>
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
+      <c r="N13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>26</v>
@@ -3495,16 +3369,37 @@
       <c r="F14" s="20"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="17"/>
       <c r="M14" s="12"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="F15"/>
-      <c r="G15"/>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B15" s="6">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:15">
       <c r="F16"/>
@@ -3541,6 +3436,10 @@
     <row r="24" spans="6:7">
       <c r="F24"/>
       <c r="G24"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25"/>
+      <c r="G25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3560,19 +3459,19 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E12:E13">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
       <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3582,8 +3481,8 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O24"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3601,102 +3500,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3714,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3732,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3748,16 +3647,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3773,37 +3672,43 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="13.5" customHeight="1">
+    <row r="10" spans="1:15" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="8">
         <v>20</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="10" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
       <c r="L10" s="17"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
@@ -3812,25 +3717,27 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="15">
-        <v>100</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
@@ -3839,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -3852,7 +3759,9 @@
         <v>50</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="17"/>
@@ -3866,32 +3775,30 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -3901,114 +3808,219 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="6">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="G15" s="15">
+        <v>100</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="17"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="6">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
       <c r="L16" s="17"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="6:8">
+      <c r="N16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B18" s="6">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="F20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="6:8">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="F21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="6:8">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="F22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="6:8">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="F23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="6:8">
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="F24"/>
-      <c r="H24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="F30"/>
+      <c r="G30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4028,530 +4040,19 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12 E15">
+      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E19">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E12">
-      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 E13:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E16:E17 E9:E10">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L16">
-      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="13" width="10.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="40.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="4"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="8">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="8">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="8">
-        <v>50</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="15">
-        <v>100</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B16" s="6">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B17" s="6">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E11 E14">
-      <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E17">
-      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F17">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E9 E12:E13">
-      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L19">
       <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4560,7 +4061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O24"/>
@@ -4581,102 +4082,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -4694,7 +4195,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4712,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4728,16 +4229,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -4753,7 +4254,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -4763,16 +4264,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -4781,12 +4282,14 @@
       <c r="I10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
     </row>
@@ -4796,16 +4299,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G11" s="15">
         <v>20</v>
@@ -4814,9 +4317,7 @@
       <c r="I11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
       <c r="M11" s="12"/>
@@ -4826,7 +4327,7 @@
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>47</v>
@@ -4835,10 +4336,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -4860,7 +4361,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>29</v>
@@ -4875,7 +4376,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4885,7 +4386,7 @@
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>30</v>
@@ -4990,450 +4491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="40.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="8">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="8">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="15">
-        <v>20</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B13" s="6">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B14" s="6">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="M15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="M16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="6:8" s="3" customFormat="1">
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="6:8" s="3" customFormat="1">
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="6:8" s="3" customFormat="1">
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="6:8" s="3" customFormat="1">
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="6:8" s="3" customFormat="1">
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="6:8" s="3" customFormat="1">
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="6:8" s="3" customFormat="1">
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="6:8" s="3" customFormat="1">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="6:8" s="3" customFormat="1">
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14">
-      <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F14">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E12">
-      <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L14">
-      <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
@@ -5453,102 +4511,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="21"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="28"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="34"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="28"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="34"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="41"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -5566,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -5584,7 +4642,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -5600,16 +4658,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -5625,7 +4683,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -5635,16 +4693,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -5653,12 +4711,14 @@
       <c r="I10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
     </row>
@@ -5668,16 +4728,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G11" s="15">
         <v>20</v>
@@ -5686,9 +4746,7 @@
       <c r="I11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="17"/>
       <c r="M11" s="12"/>
@@ -5698,7 +4756,7 @@
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>47</v>
@@ -5707,10 +4765,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -5732,7 +4790,7 @@
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
       <c r="B13" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>29</v>
@@ -5747,7 +4805,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5757,7 +4815,7 @@
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="B14" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>30</v>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -10,9 +10,9 @@
     <sheet name="目录" sheetId="13" r:id="rId1"/>
     <sheet name="sys_user" sheetId="12" r:id="rId2"/>
     <sheet name="sys_role" sheetId="15" r:id="rId3"/>
-    <sheet name="sys_menu" sheetId="19" r:id="rId4"/>
+    <sheet name="sys_resource" sheetId="19" r:id="rId4"/>
     <sheet name="sys_role_user" sheetId="17" r:id="rId5"/>
-    <sheet name="sys_role_menu" sheetId="20" r:id="rId6"/>
+    <sheet name="sys_role_resource" sheetId="20" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="129">
   <si>
     <t>作成者</t>
   </si>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>系统角色用户关联表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -353,18 +349,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统菜单表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>正数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -390,66 +374,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单排列顺序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_sort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 表示目录，1 表示菜单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色菜单关联表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -492,26 +416,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_menu_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点菜单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点菜单ID,0为根节点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>role_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -524,15 +428,141 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>role_id,menu_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_role_menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统角色菜单关联表</t>
+    <t>sys_resource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点资源ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统资源表</t>
+  </si>
+  <si>
+    <t>父节点资源ID,0为根节点</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>资源排列顺序</t>
+  </si>
+  <si>
+    <t>资源描述</t>
+  </si>
+  <si>
+    <t>0 表示菜单，1 表示资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统资源表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_role_resource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色资源关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统角色资源关联表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id,resource_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路由</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>route</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET POST DELETE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parents</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含的父节点资源ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上到下，用,分隔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1421,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1454,12 +1484,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="166" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1507,9 +1543,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="166" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="167">
@@ -2114,236 +2147,236 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="24" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="40" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="40" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="4:7">
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="4:7">
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="4:7">
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="4:7">
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="4:7">
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="4:7">
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="4:7">
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="4:7">
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="4:7">
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="4:7">
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="4:7">
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="4:7">
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="4:7">
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="4:7">
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="4:7">
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
     </row>
     <row r="32" spans="4:7">
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="4:7">
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -2448,102 +2481,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="31"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="31"/>
+      <c r="N6" s="33"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -2561,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -2579,7 +2612,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -2600,10 +2633,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -2646,10 +2679,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -2820,10 +2853,10 @@
         <v>45</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -2843,16 +2876,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -2866,7 +2899,7 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="13.5" customHeight="1">
@@ -2880,10 +2913,10 @@
         <v>56</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -2913,10 +2946,10 @@
         <v>46</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -3047,102 +3080,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3160,7 +3193,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3178,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3200,10 +3233,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3232,7 +3265,7 @@
         <v>59</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -3248,10 +3281,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="3"/>
@@ -3265,7 +3298,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3289,16 +3322,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -3314,7 +3347,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -3324,16 +3357,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -3349,7 +3382,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -3370,7 +3403,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3482,7 +3515,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3500,102 +3533,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -3613,7 +3646,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -3631,7 +3664,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -3653,10 +3686,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -3682,16 +3715,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -3707,7 +3740,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -3717,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3746,10 +3779,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -3775,30 +3808,26 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F13" s="20"/>
       <c r="G13" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="17"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="12" t="s">
-        <v>94</v>
+      <c r="N13" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -3808,19 +3837,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
@@ -3830,7 +3859,9 @@
       <c r="K14" s="11"/>
       <c r="L14" s="17"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="N14" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1">
@@ -3839,24 +3870,24 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>110</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="15">
-        <v>100</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+      <c r="G15" s="8">
+        <v>50</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="12"/>
       <c r="O15" s="3"/>
     </row>
@@ -3866,33 +3897,29 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
-        <v>107</v>
-      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="13.5" customHeight="1">
@@ -3901,94 +3928,177 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="10" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="K17" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="L17" s="17"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12" t="s">
-        <v>48</v>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A18" s="3"/>
       <c r="B18" s="6">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
+        <v>101</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="G18" s="15">
+        <v>100</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="17"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="17"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A19" s="3"/>
       <c r="B19" s="6">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
       <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="N19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B21" s="6">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B22" s="6">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:15">
       <c r="F23"/>
@@ -4021,6 +4131,18 @@
     <row r="30" spans="1:15">
       <c r="F30"/>
       <c r="G30"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33"/>
+      <c r="G33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4040,19 +4162,19 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E12 E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E18 E11:E13">
       <formula1>"UNSIGNED BIGINT,UNSIGNED TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E22">
       <formula1>"bigint unsigned,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F22">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E16:E17 E9:E10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E10 E19:E20 E16:E17 E14">
       <formula1>"BIGINT,TINYINT,VARCHAR,CHAR,DECIMAL,INT,DATE,DATETIME,TIMESTAMP,TEXT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L22">
       <formula1>"FULLTEXT,UNIQUE,INDEX"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4082,102 +4204,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="4"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -4195,7 +4317,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4213,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4235,10 +4357,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -4264,16 +4386,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -4285,10 +4407,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
@@ -4299,16 +4421,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="15">
         <v>20</v>
@@ -4336,10 +4458,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -4376,7 +4498,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -4511,102 +4633,102 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="21"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="34"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="36"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="36"/>
       <c r="O3" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="39"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="3"/>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="39"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="3"/>
     </row>
     <row r="8" spans="1:15">
@@ -4624,7 +4746,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
@@ -4642,7 +4764,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>13</v>
@@ -4664,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9" s="8">
         <v>20</v>
@@ -4693,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="8">
         <v>20</v>
@@ -4714,10 +4836,10 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
@@ -4728,16 +4850,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11" s="15">
         <v>20</v>
@@ -4765,10 +4887,10 @@
         <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -4805,7 +4927,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -2451,9 +2451,9 @@
   <hyperlinks>
     <hyperlink ref="D3:E3" location="sys_user!A1" display="系统用户表"/>
     <hyperlink ref="D4:E4" location="sys_role!A1" display="系统角色表"/>
-    <hyperlink ref="D5:E5" location="sys_menu!A1" display="系统菜单表"/>
+    <hyperlink ref="D5:E5" location="sys_resource!A1" display="系统资源表"/>
     <hyperlink ref="D6:E6" location="sys_role_user!A1" display="系统角色用户关联表"/>
-    <hyperlink ref="D7:E7" location="sys_role_menu!A1" display="系统角色菜单关联表"/>
+    <hyperlink ref="D7:E7" location="sys_role_resource!A1" display="系统角色资源关联表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
